--- a/system/__preparation/Params.xlsx
+++ b/system/__preparation/Params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc_enigma\MDProjects\MD_UIO66_TEMPO\system\__preparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4CAB45-7722-4A92-8917-1573816010A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB68C42-3ECF-423A-8871-3A8814B15CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mass" sheetId="4" r:id="rId1"/>
@@ -39,48 +39,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="213">
-  <si>
-    <t>C1-H1</t>
-  </si>
-  <si>
-    <t>C1-N</t>
-  </si>
-  <si>
-    <t>C2-N</t>
-  </si>
-  <si>
-    <t>C2-C2</t>
-  </si>
-  <si>
-    <t>C2-C5</t>
-  </si>
-  <si>
-    <t>C5-H5</t>
-  </si>
-  <si>
-    <t>C5-C6</t>
-  </si>
-  <si>
-    <t>C6-H6</t>
-  </si>
-  <si>
-    <t>C6-C6</t>
-  </si>
-  <si>
-    <t>Zn-N</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
   <si>
     <t>r0 [A]</t>
   </si>
   <si>
     <t>r0 [нм]</t>
-  </si>
-  <si>
-    <t>kr [Ккал * моль^-1 * А^-2)]</t>
-  </si>
-  <si>
-    <t>alpha [A^-1]</t>
   </si>
   <si>
     <t>kr [КДж * моль^-1 * нм^-2]</t>
@@ -89,43 +53,13 @@
     <t>func. Type</t>
   </si>
   <si>
-    <t>b0 [nm]</t>
-  </si>
-  <si>
-    <t>Dr [Ккал * моль^-1]</t>
-  </si>
-  <si>
-    <t>D [КДж * моль^-1]</t>
-  </si>
-  <si>
-    <t>betta [нм^-1]</t>
-  </si>
-  <si>
-    <t>Zn</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
     <t>H1</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>H6</t>
   </si>
   <si>
     <t>IntraFF</t>
@@ -134,73 +68,19 @@
     <t>GROMACS</t>
   </si>
   <si>
-    <t>!!В IntraFF исключены взаимодействия 1-2, 1-3, 1-4</t>
-  </si>
-  <si>
-    <t>Epsilon [Ккал * моль^-1]</t>
-  </si>
-  <si>
     <t>КАКОЙ COMB RULE??</t>
   </si>
   <si>
     <t>Epsilon [КДж * моль^-1]</t>
   </si>
   <si>
-    <t>epsilon*(r0/ r)^12 - 2*epsilon*(r0/r)^6</t>
-  </si>
-  <si>
-    <t>AMBER</t>
-  </si>
-  <si>
     <t>sigma [нм]</t>
-  </si>
-  <si>
-    <t>N-C1-H1</t>
   </si>
   <si>
     <t>theta, degree</t>
   </si>
   <si>
     <t>kr [Ккал * моль^-1 * rad-2)]</t>
-  </si>
-  <si>
-    <t>N-C1-N</t>
-  </si>
-  <si>
-    <t>N-C2-C5</t>
-  </si>
-  <si>
-    <t>N-C2-C2</t>
-  </si>
-  <si>
-    <t>C1-N-C2</t>
-  </si>
-  <si>
-    <t>C2-C5-H5</t>
-  </si>
-  <si>
-    <t>C2-C5-C6</t>
-  </si>
-  <si>
-    <t>C5-C6-C6</t>
-  </si>
-  <si>
-    <t>C5-C6-H6</t>
-  </si>
-  <si>
-    <t>C6-C6-H6</t>
-  </si>
-  <si>
-    <t>C6-C5-H5</t>
-  </si>
-  <si>
-    <t>C2-C2-C5</t>
-  </si>
-  <si>
-    <t>N-Zn-N</t>
-  </si>
-  <si>
-    <t>Zn-N-C2</t>
   </si>
   <si>
     <t>phi, degree</t>
@@ -212,81 +92,11 @@
     <t>kr [Ккал * моль^-1]</t>
   </si>
   <si>
-    <t>C1-N-Zn-N</t>
-  </si>
-  <si>
-    <t>C2-N-Zn-N</t>
-  </si>
-  <si>
-    <t>1,2,3</t>
-  </si>
-  <si>
-    <t>N-C2-C5-C6</t>
-  </si>
-  <si>
-    <t>H1-C1-N-C2</t>
-  </si>
-  <si>
-    <t>C1-N-C2-C2</t>
-  </si>
-  <si>
-    <t>H5-C5-C2-N</t>
-  </si>
-  <si>
-    <t>C2-C2-C5-H5</t>
-  </si>
-  <si>
-    <t>C5-C2-C2-C5</t>
-  </si>
-  <si>
-    <t>H5-C5-C6-C6</t>
-  </si>
-  <si>
-    <t>H6-C6-C6-C5</t>
-  </si>
-  <si>
-    <t>C5-C6-C6-C5</t>
-  </si>
-  <si>
-    <t>N-C2-C2-N</t>
-  </si>
-  <si>
-    <t>N-C2-C2-C5</t>
-  </si>
-  <si>
-    <t>C1-N-C2-C5</t>
-  </si>
-  <si>
-    <t>C2-C5-C6-H6</t>
-  </si>
-  <si>
-    <t>C6-C5-C2-C2</t>
-  </si>
-  <si>
-    <t>C6-C6-C5-C2</t>
-  </si>
-  <si>
-    <t>N-C1-N-C2</t>
-  </si>
-  <si>
     <t>funct</t>
-  </si>
-  <si>
-    <t>4*epsilon*(05*sigma/ r)^12 - 4*epsilon*(0,5*sigma/r)^6</t>
   </si>
   <si>
     <t>Lorentz-Berthelot
 mixing rules</t>
-  </si>
-  <si>
-    <t>AmberFF</t>
-  </si>
-  <si>
-    <t>https://github.com/choderalab/ambermini/blob/master/share/amber/dat/leap/parm/parm10.dat</t>
-  </si>
-  <si>
-    <t>to convert to gmx:
-                sigma = 1.4590 * 2^(-1/6) * 2 = 2 * 1.29982 Ang. = 2 * 0.129982 nm  = 1.4590 * 2^(5/6)/10 =  0.259964 nm</t>
   </si>
   <si>
     <t>phase</t>
@@ -298,43 +108,10 @@
     <t>pn</t>
   </si>
   <si>
-    <t>У ОСТАЛЬНЫХ УГЛОВ СИЛОВАЯ КОНСТАНТА 0,0</t>
-  </si>
-  <si>
-    <t>kr1 [Ккал * моль^-1]</t>
-  </si>
-  <si>
-    <t>kr2 [Ккал * моль^-1]</t>
-  </si>
-  <si>
-    <t>kr3 [Ккал * моль^-1]</t>
-  </si>
-  <si>
-    <t>phi1, degree</t>
-  </si>
-  <si>
-    <t>phi2, degree</t>
-  </si>
-  <si>
-    <t>phi3, degree</t>
-  </si>
-  <si>
     <t>C3</t>
   </si>
   <si>
-    <t>C4</t>
-  </si>
-  <si>
     <t>LJ</t>
-  </si>
-  <si>
-    <t>Morse potential</t>
-  </si>
-  <si>
-    <t>Zn-N-C1</t>
-  </si>
-  <si>
-    <t>RIGID</t>
   </si>
   <si>
     <t>Zr</t>
@@ -346,133 +123,22 @@
     <t>O3</t>
   </si>
   <si>
-    <t>Atomic</t>
-  </si>
-  <si>
-    <t>DREIDING</t>
-  </si>
-  <si>
     <t>UFF</t>
-  </si>
-  <si>
-    <t>types</t>
-  </si>
-  <si>
-    <t>σ</t>
-  </si>
-  <si>
-    <t>(Å)</t>
-  </si>
-  <si>
-    <t>ε</t>
-  </si>
-  <si>
-    <t>(kJ/mol)</t>
-  </si>
-  <si>
-    <t>2.783a</t>
-  </si>
-  <si>
-    <t>0.2887a</t>
-  </si>
-  <si>
-    <t>2.783</t>
-  </si>
-  <si>
-    <t>0.2887</t>
-  </si>
-  <si>
-    <t>3.473</t>
-  </si>
-  <si>
-    <t>0.3979</t>
-  </si>
-  <si>
-    <t>3.431</t>
-  </si>
-  <si>
-    <t>0.4393</t>
-  </si>
-  <si>
-    <t>3.033</t>
-  </si>
-  <si>
-    <t>0.4004</t>
-  </si>
-  <si>
-    <t>3.118</t>
-  </si>
-  <si>
-    <t>0.2510</t>
-  </si>
-  <si>
-    <t>2.846</t>
-  </si>
-  <si>
-    <t>0.0636</t>
-  </si>
-  <si>
-    <t>2.571</t>
-  </si>
-  <si>
-    <t>0.1841</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>(kJ/(mol⋅Å2</t>
-  </si>
-  <si>
-    <t>))</t>
-  </si>
-  <si>
-    <t>0r</t>
   </si>
   <si>
     <t>Zr-O3</t>
   </si>
   <si>
-    <t>1077.338</t>
-  </si>
-  <si>
-    <t>2.098</t>
-  </si>
-  <si>
     <t>Zr-O1</t>
-  </si>
-  <si>
-    <t>2872.902</t>
-  </si>
-  <si>
-    <t>2.232</t>
   </si>
   <si>
     <t>C1-O1</t>
   </si>
   <si>
-    <t>4518.720</t>
-  </si>
-  <si>
-    <t>1.273</t>
-  </si>
-  <si>
     <t>C1-C2</t>
   </si>
   <si>
-    <t>2939.283</t>
-  </si>
-  <si>
-    <t>1.487</t>
-  </si>
-  <si>
     <t>C2-C3</t>
-  </si>
-  <si>
-    <t>4016.640</t>
-  </si>
-  <si>
-    <t>1.393</t>
   </si>
   <si>
     <t>C3-C3</t>
@@ -481,121 +147,28 @@
     <t>C3-H1</t>
   </si>
   <si>
-    <t>3041.068</t>
-  </si>
-  <si>
-    <t>1.080</t>
-  </si>
-  <si>
-    <t>Bond</t>
-  </si>
-  <si>
-    <t>bendings</t>
-  </si>
-  <si>
-    <t>Interaction</t>
-  </si>
-  <si>
-    <t>(i-j-k)</t>
-  </si>
-  <si>
-    <t>ijk</t>
-  </si>
-  <si>
-    <t>(kJ/(mol⋅rad2</t>
-  </si>
-  <si>
-    <t>θ0</t>
-  </si>
-  <si>
-    <t>(degree)</t>
-  </si>
-  <si>
     <t>O3-Zr-O3</t>
-  </si>
-  <si>
-    <t>115.776</t>
-  </si>
-  <si>
-    <t>71.1</t>
-  </si>
-  <si>
-    <t>100.4</t>
   </si>
   <si>
     <t>O1-Zr-O1</t>
   </si>
   <si>
-    <t>76.0</t>
-  </si>
-  <si>
-    <t>81.9</t>
-  </si>
-  <si>
-    <t>69.8</t>
-  </si>
-  <si>
-    <t>74.4</t>
-  </si>
-  <si>
     <t>O1-Zr-O3</t>
-  </si>
-  <si>
-    <t>85.7</t>
-  </si>
-  <si>
-    <t>124.3</t>
-  </si>
-  <si>
-    <t>127.6</t>
-  </si>
-  <si>
-    <t>143.5</t>
-  </si>
-  <si>
-    <t>150.5</t>
   </si>
   <si>
     <t>Zr-O1-C1</t>
   </si>
   <si>
-    <t>231.637</t>
-  </si>
-  <si>
-    <t>135.8</t>
-  </si>
-  <si>
     <t>O1-C1-O1</t>
-  </si>
-  <si>
-    <t>1213.360</t>
-  </si>
-  <si>
-    <t>125.0</t>
   </si>
   <si>
     <t>O1-C1-C2</t>
   </si>
   <si>
-    <t>456.013</t>
-  </si>
-  <si>
-    <t>117.3</t>
-  </si>
-  <si>
     <t>C1-C2-C3</t>
   </si>
   <si>
-    <t>290.201</t>
-  </si>
-  <si>
-    <t>120.0</t>
-  </si>
-  <si>
     <t>C3-C2-C3</t>
-  </si>
-  <si>
-    <t>753.120</t>
   </si>
   <si>
     <t>C2-C3-C3</t>
@@ -604,46 +177,16 @@
     <t>C2-C3-H1</t>
   </si>
   <si>
-    <t>309.616</t>
-  </si>
-  <si>
     <t>C3-C3-H1</t>
-  </si>
-  <si>
-    <t>Torsions</t>
-  </si>
-  <si>
-    <t>(i-j-k-l)</t>
-  </si>
-  <si>
-    <t>ijkl</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>φ0</t>
   </si>
   <si>
     <t>Zr-O1-C1-C2</t>
   </si>
   <si>
-    <t>86.837</t>
-  </si>
-  <si>
-    <t>180.0</t>
-  </si>
-  <si>
     <t>O1-C1-C2-C3</t>
   </si>
   <si>
-    <t>10.460</t>
-  </si>
-  <si>
     <t>C1-C2-C3-C3</t>
-  </si>
-  <si>
-    <t>12.552</t>
   </si>
   <si>
     <t>C1-C2-C3-H1</t>
@@ -664,22 +207,28 @@
     <t>H1-C3-C3-H1</t>
   </si>
   <si>
-    <t>Improper</t>
-  </si>
-  <si>
-    <t>torsion</t>
-  </si>
-  <si>
-    <t>(kJ/⋅mol)</t>
-  </si>
-  <si>
     <t>C2-C1-O1-O1</t>
   </si>
   <si>
-    <t>41.840</t>
+    <t>Взяты UFF параметры WDW</t>
   </si>
   <si>
-    <t>1.548</t>
+    <t>https://lammpstube.com/wp-content/uploads/2019/10/UFF.pdf</t>
+  </si>
+  <si>
+    <t>kr [КДж * моль^-1 * А^-2)]</t>
+  </si>
+  <si>
+    <t>k [КДж * моль^-1 * rad-2)]</t>
+  </si>
+  <si>
+    <t>PROPER</t>
+  </si>
+  <si>
+    <t>IMPROPER</t>
+  </si>
+  <si>
+    <t>kr [КДж * моль^-1]</t>
   </si>
 </sst>
 </file>
@@ -714,7 +263,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -724,18 +273,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -766,16 +303,14 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -787,6 +322,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -812,22 +359,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>940520</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>26620</xdr:rowOff>
+      <xdr:colOff>1264921</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>157990</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Рисунок 8">
+        <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADEED94B-6BB0-42D0-A2B5-E89E2F3366CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C58B47E-4771-48DE-92B2-B2A7A36BC840}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -843,8 +390,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5113020"/>
-          <a:ext cx="4400000" cy="400000"/>
+          <a:off x="7621" y="3512820"/>
+          <a:ext cx="4716780" cy="1765810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -857,21 +404,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>405766</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>140520</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>72316</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Рисунок 9">
+        <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{508583D9-E4F4-4F5D-8754-73BF498118C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65B4C78B-74F4-42D1-9F59-04B0B1609138}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -887,8 +434,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5852160"/>
-          <a:ext cx="8452486" cy="777240"/>
+          <a:off x="0" y="5516880"/>
+          <a:ext cx="3600000" cy="590476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1165,15 +712,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1928273-5A3A-4D5F-A4BC-3B6215A8BACD}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="B1">
         <v>91.224000000000004</v>
@@ -1181,7 +728,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>12.010999999999999</v>
@@ -1189,7 +736,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>12.010999999999999</v>
@@ -1197,7 +744,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>12.010999999999999</v>
@@ -1205,7 +752,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>16</v>
@@ -1213,7 +760,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>16</v>
@@ -1221,7 +768,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1.008</v>
@@ -1238,14 +785,14 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="A8:B12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="B1">
         <v>1.968</v>
@@ -1253,7 +800,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0.63</v>
@@ -1261,7 +808,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>-8.2000000000000003E-2</v>
@@ -1269,7 +816,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>-6.5000000000000002E-2</v>
@@ -1277,7 +824,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>-0.58599999999999997</v>
@@ -1285,7 +832,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>-0.99199999999999999</v>
@@ -1293,7 +840,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0.13300000000000001</v>
@@ -1306,10 +853,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251B0849-D9CB-4B2C-996F-66E1D6E76DE2}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J41" sqref="A28:J41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="A9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1323,15 +870,15 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="18"/>
+      <c r="E1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="13"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1343,16 +890,16 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="A2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="18"/>
+      <c r="E2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="13"/>
       <c r="G2" s="2"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1364,16 +911,16 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1386,22 +933,22 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
+      <c r="A4" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B4" s="2">
-        <v>1.1000000000000001</v>
+        <v>2.7829999999999999</v>
       </c>
       <c r="C4" s="2">
-        <v>1.2500000000000001E-2</v>
+        <v>0.28870000000000001</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E12" si="0">B4*0.1*POWER(2,5/6)</f>
-        <v>0.19599771799087468</v>
+        <f>B4*0.1</f>
+        <v>0.27829999999999999</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F12" si="1">C4*4.184</f>
-        <v>5.2300000000000006E-2</v>
+        <f>C4</f>
+        <v>0.28870000000000001</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1412,22 +959,22 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
+      <c r="A5" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>1.8240000000000001</v>
+        <v>3.431</v>
       </c>
       <c r="C5" s="2">
-        <v>0.17</v>
+        <v>0.43930000000000002</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.32499985237759577</v>
+        <f t="shared" ref="E5:E10" si="0">B5*0.1</f>
+        <v>0.34310000000000002</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="1"/>
-        <v>0.71128000000000013</v>
+        <f t="shared" ref="F5:F10" si="1">C5</f>
+        <v>0.43930000000000002</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1438,22 +985,22 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
+      <c r="A6" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>1.9079999999999999</v>
+        <v>3.431</v>
       </c>
       <c r="C6" s="2">
-        <v>8.5999999999999993E-2</v>
+        <v>0.43930000000000002</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>0.33996695084235345</v>
+        <v>0.34310000000000002</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="1"/>
-        <v>0.35982399999999998</v>
+        <v>0.43930000000000002</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1464,22 +1011,22 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
+      <c r="A7" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="B7" s="2">
-        <v>1.9079999999999999</v>
+        <v>3.431</v>
       </c>
       <c r="C7" s="2">
-        <v>8.5999999999999993E-2</v>
+        <v>0.43930000000000002</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>0.33996695084235345</v>
+        <v>0.34310000000000002</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="1"/>
-        <v>0.35982399999999998</v>
+        <v>0.43930000000000002</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1490,22 +1037,22 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
+      <c r="A8" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B8" s="2">
-        <v>1.9079999999999999</v>
+        <v>3.1179999999999999</v>
       </c>
       <c r="C8" s="2">
-        <v>8.5999999999999993E-2</v>
+        <v>0.251</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>0.33996695084235345</v>
+        <v>0.31180000000000002</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="1"/>
-        <v>0.35982399999999998</v>
+        <v>0.251</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1518,22 +1065,22 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
+      <c r="A9" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B9" s="2">
-        <v>1.9079999999999999</v>
+        <v>3.1179999999999999</v>
       </c>
       <c r="C9" s="2">
-        <v>8.5999999999999993E-2</v>
+        <v>0.251</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>0.33996695084235345</v>
+        <v>0.31180000000000002</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="1"/>
-        <v>0.35982399999999998</v>
+        <v>0.251</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1546,22 +1093,22 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
+      <c r="A10" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B10" s="2">
-        <v>1.409</v>
+        <v>2.5710000000000002</v>
       </c>
       <c r="C10" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>0.18410000000000001</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>0.25105525877194762</v>
+        <v>0.25710000000000005</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="1"/>
-        <v>6.2759999999999996E-2</v>
+        <v>0.18410000000000001</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1574,23 +1121,11 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1.409</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.25105525877194762</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="1"/>
-        <v>6.2759999999999996E-2</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1602,23 +1137,11 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1.409</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.25105525877194762</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="1"/>
-        <v>6.2759999999999996E-2</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1647,12 +1170,12 @@
     </row>
     <row r="14" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1667,9 +1190,7 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1686,9 +1207,7 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1705,9 +1224,7 @@
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1723,9 +1240,7 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1757,9 +1272,7 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="A20" s="6"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1790,15 +1303,15 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+    <row r="22" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
@@ -1873,16 +1386,16 @@
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -1890,16 +1403,16 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -1907,22 +1420,16 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -1930,34 +1437,16 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="J30" s="16"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -1965,26 +1454,16 @@
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -1992,26 +1471,16 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -2019,26 +1488,16 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2046,26 +1505,16 @@
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -2073,118 +1522,124 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2194,7 +1649,7 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A20" r:id="rId1" xr:uid="{21957BCE-90FD-405F-BD09-C393838BE942}"/>
+    <hyperlink ref="A22" r:id="rId1" xr:uid="{AC52351E-8FA9-4E7E-A0AC-CA4805FA680A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2205,7 +1660,7 @@
   <dimension ref="A1:S92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:C31"/>
+      <selection activeCell="A9" sqref="A3:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2219,18 +1674,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="A1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2246,20 +1701,20 @@
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2275,26 +1730,26 @@
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
+      <c r="A3" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="B3" s="1">
-        <v>369.37</v>
+        <v>1077.338</v>
       </c>
       <c r="C3" s="1">
-        <v>1.0900000000000001</v>
+        <v>2.0979999999999999</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1">
+      <c r="E3" s="10">
         <v>1</v>
       </c>
       <c r="F3" s="2">
         <f>C3*0.1</f>
-        <v>0.10900000000000001</v>
+        <v>0.20979999999999999</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G11" si="0">B3*4.184*100</f>
-        <v>154544.408</v>
+        <f>B3*100</f>
+        <v>107733.8</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2310,26 +1765,26 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2872.902</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.2320000000000002</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>351.24</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.34</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F11" si="1">C4*0.1</f>
-        <v>0.13400000000000001</v>
+        <f t="shared" ref="F4:F11" si="0">C4*0.1</f>
+        <v>0.22320000000000004</v>
       </c>
       <c r="G4" s="7">
-        <f t="shared" si="0"/>
-        <v>146958.81599999999</v>
+        <f t="shared" ref="G4:G9" si="1">B4*100</f>
+        <v>287290.2</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2345,26 +1800,26 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
+      <c r="A5" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="B5" s="1">
-        <v>274.22000000000003</v>
+        <v>4518.72</v>
       </c>
       <c r="C5" s="1">
-        <v>1.39</v>
+        <v>1.2729999999999999</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1">
+      <c r="E5" s="10">
         <v>1</v>
       </c>
       <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1273</v>
+      </c>
+      <c r="G5" s="7">
         <f t="shared" si="1"/>
-        <v>0.13899999999999998</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" si="0"/>
-        <v>114733.64800000002</v>
+        <v>451872</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2380,26 +1835,26 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
+      <c r="A6" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="B6" s="1">
-        <v>288.33</v>
+        <v>2939.2829999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1.42</v>
+        <v>1.4870000000000001</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1">
+      <c r="E6" s="10">
         <v>1</v>
       </c>
       <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14870000000000003</v>
+      </c>
+      <c r="G6" s="7">
         <f t="shared" si="1"/>
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" si="0"/>
-        <v>120637.27200000001</v>
+        <v>293928.3</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2415,26 +1870,26 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
+      <c r="A7" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="B7" s="1">
-        <v>350.29</v>
+        <v>4016.64</v>
       </c>
       <c r="C7" s="1">
-        <v>1.4</v>
+        <v>1.393</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1">
+      <c r="E7" s="10">
         <v>1</v>
       </c>
       <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13930000000000001</v>
+      </c>
+      <c r="G7" s="7">
         <f t="shared" si="1"/>
-        <v>0.13999999999999999</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" si="0"/>
-        <v>146561.33600000001</v>
+        <v>401664</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2450,26 +1905,26 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
+      <c r="A8" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="B8" s="1">
-        <v>361.76</v>
+        <v>4016.64</v>
       </c>
       <c r="C8" s="1">
-        <v>1.0900000000000001</v>
+        <v>1.393</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1">
+      <c r="E8" s="10">
         <v>1</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="1"/>
-        <v>0.10900000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.13930000000000001</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" si="0"/>
-        <v>151360.38399999999</v>
+        <f>B8*100</f>
+        <v>401664</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2485,26 +1940,26 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
+      <c r="A9" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="B9" s="1">
-        <v>366.93</v>
+        <v>3041.0680000000002</v>
       </c>
       <c r="C9" s="1">
-        <v>1.39</v>
+        <v>1.08</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1">
+      <c r="E9" s="10">
         <v>1</v>
       </c>
       <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10800000000000001</v>
+      </c>
+      <c r="G9" s="7">
         <f t="shared" si="1"/>
-        <v>0.13899999999999998</v>
-      </c>
-      <c r="G9" s="7">
-        <f t="shared" si="0"/>
-        <v>153523.51200000002</v>
+        <v>304106.80000000005</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2520,27 +1975,13 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1">
-        <v>360.81</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.0900000000000001</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="1"/>
-        <v>0.10900000000000001</v>
-      </c>
-      <c r="G10" s="7">
-        <f t="shared" si="0"/>
-        <v>150962.90400000001</v>
-      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -2555,27 +1996,13 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1">
-        <v>339.98</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.41</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="1"/>
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="G11" s="7">
-        <f t="shared" si="0"/>
-        <v>142247.63200000001</v>
-      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2597,11 +2024,11 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -2611,32 +2038,18 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -2646,36 +2059,18 @@
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1">
-        <v>26.06</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1.98</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1.99</v>
-      </c>
-      <c r="E14" s="10">
-        <v>3</v>
-      </c>
-      <c r="F14" s="2">
-        <f>D14*0.1</f>
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="G14" s="2">
-        <f>B14*4.184</f>
-        <v>109.03504</v>
-      </c>
-      <c r="H14" s="2">
-        <f>C14*10</f>
-        <v>19.8</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -2685,13 +2080,18 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -2701,18 +2101,18 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -2722,18 +2122,18 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -2743,18 +2143,18 @@
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -2764,17 +2164,18 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -2784,17 +2185,18 @@
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -2804,18 +2206,18 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -2825,18 +2227,18 @@
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -2846,21 +2248,18 @@
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="1"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -2870,23 +2269,18 @@
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -2896,23 +2290,18 @@
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -2922,23 +2311,18 @@
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -2948,23 +2332,18 @@
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -2974,23 +2353,18 @@
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -3000,23 +2374,18 @@
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -3026,23 +2395,18 @@
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -3052,23 +2416,18 @@
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -3078,17 +2437,18 @@
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -3098,18 +2458,18 @@
       <c r="S32" s="1"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -3119,18 +2479,18 @@
       <c r="S33" s="1"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -3140,18 +2500,18 @@
       <c r="S34" s="1"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -3161,18 +2521,18 @@
       <c r="S35" s="1"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -3182,18 +2542,18 @@
       <c r="S36" s="1"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -3203,18 +2563,18 @@
       <c r="S37" s="1"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -4364,22 +3724,22 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAE1325-F869-41AB-ACDE-AF02B1CC74B2}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:E51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A3:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
     <col min="5" max="5" width="6.88671875" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="25.5546875" customWidth="1"/>
@@ -4387,14 +3747,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="E1" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="21"/>
+      <c r="B1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="E1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="17"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -4408,20 +3768,20 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -4434,13 +3794,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3">
-        <v>54.4</v>
-      </c>
-      <c r="C3" s="3">
-        <v>122.77</v>
+        <v>35</v>
+      </c>
+      <c r="B3" s="23">
+        <v>115.776</v>
+      </c>
+      <c r="C3" s="22">
+        <v>71.099999999999994</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3">
@@ -4448,11 +3808,11 @@
       </c>
       <c r="F3" s="8">
         <f>C3</f>
-        <v>122.77</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="G3" s="8">
-        <f>B3*4.184</f>
-        <v>227.6096</v>
+        <f t="shared" ref="G3:G16" si="0">B3</f>
+        <v>115.776</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -4465,25 +3825,25 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4">
-        <v>113.26</v>
-      </c>
-      <c r="C4" s="3">
-        <v>114.47</v>
+        <v>35</v>
+      </c>
+      <c r="B4" s="23">
+        <v>115.776</v>
+      </c>
+      <c r="C4" s="22">
+        <v>100.4</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F17" si="0">C4</f>
-        <v>114.47</v>
+        <f t="shared" ref="F4:F21" si="1">C4</f>
+        <v>100.4</v>
       </c>
       <c r="G4" s="8">
-        <f t="shared" ref="G4:G17" si="1">B4*4.184</f>
-        <v>473.87984000000006</v>
+        <f t="shared" si="0"/>
+        <v>115.776</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -4496,25 +3856,25 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5">
-        <v>150.32</v>
-      </c>
-      <c r="C5" s="3">
-        <v>131.01</v>
+        <v>36</v>
+      </c>
+      <c r="B5" s="23">
+        <v>115.776</v>
+      </c>
+      <c r="C5" s="22">
+        <v>76</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
         <v>1</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="0"/>
-        <v>131.01</v>
+        <f t="shared" si="1"/>
+        <v>76</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" si="1"/>
-        <v>628.93888000000004</v>
+        <f>B5</f>
+        <v>115.776</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -4527,25 +3887,25 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="3">
-        <v>121.99</v>
-      </c>
-      <c r="C6" s="3">
-        <v>107.68</v>
+        <v>36</v>
+      </c>
+      <c r="B6" s="22">
+        <v>115.776</v>
+      </c>
+      <c r="C6" s="22">
+        <v>81.900000000000006</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="8">
+        <f t="shared" si="1"/>
+        <v>81.900000000000006</v>
+      </c>
+      <c r="G6" s="8">
         <f t="shared" si="0"/>
-        <v>107.68</v>
-      </c>
-      <c r="G6" s="8">
-        <f t="shared" si="1"/>
-        <v>510.40616</v>
+        <v>115.776</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -4558,25 +3918,25 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="3">
-        <v>143.04</v>
-      </c>
-      <c r="C7" s="3">
-        <v>105.09</v>
+        <v>36</v>
+      </c>
+      <c r="B7" s="22">
+        <v>115.776</v>
+      </c>
+      <c r="C7" s="22">
+        <v>69.8</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
         <v>1</v>
       </c>
       <c r="F7" s="8">
+        <f t="shared" si="1"/>
+        <v>69.8</v>
+      </c>
+      <c r="G7" s="8">
         <f t="shared" si="0"/>
-        <v>105.09</v>
-      </c>
-      <c r="G7" s="8">
-        <f t="shared" si="1"/>
-        <v>598.47936000000004</v>
+        <v>115.776</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -4589,25 +3949,25 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="3">
-        <v>60.12</v>
-      </c>
-      <c r="C8" s="3">
-        <v>121.52</v>
+        <v>36</v>
+      </c>
+      <c r="B8" s="22">
+        <v>115.776</v>
+      </c>
+      <c r="C8" s="22">
+        <v>74.400000000000006</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
         <v>1</v>
       </c>
       <c r="F8" s="8">
+        <f t="shared" si="1"/>
+        <v>74.400000000000006</v>
+      </c>
+      <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>121.52</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" si="1"/>
-        <v>251.54208</v>
+        <v>115.776</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -4620,25 +3980,25 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="3">
-        <v>157.37</v>
-      </c>
-      <c r="C9" s="3">
-        <v>117.01</v>
+        <v>37</v>
+      </c>
+      <c r="B9" s="22">
+        <v>115.776</v>
+      </c>
+      <c r="C9" s="22">
+        <v>85.7</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
         <v>1</v>
       </c>
       <c r="F9" s="8">
+        <f t="shared" si="1"/>
+        <v>85.7</v>
+      </c>
+      <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>117.01</v>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" si="1"/>
-        <v>658.43608000000006</v>
+        <v>115.776</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -4651,25 +4011,25 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="3">
-        <v>190.48</v>
-      </c>
-      <c r="C10" s="3">
-        <v>121.67</v>
+        <v>37</v>
+      </c>
+      <c r="B10" s="22">
+        <v>115.776</v>
+      </c>
+      <c r="C10" s="22">
+        <v>124.3</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="8">
+        <f t="shared" si="1"/>
+        <v>124.3</v>
+      </c>
+      <c r="G10" s="8">
         <f t="shared" si="0"/>
-        <v>121.67</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="1"/>
-        <v>796.96831999999995</v>
+        <v>115.776</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -4682,25 +4042,25 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="3">
-        <v>60.1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>119.17</v>
+        <v>37</v>
+      </c>
+      <c r="B11" s="22">
+        <v>115.776</v>
+      </c>
+      <c r="C11" s="22">
+        <v>127.6</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11" s="8">
+        <f t="shared" si="1"/>
+        <v>127.6</v>
+      </c>
+      <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>119.17</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" si="1"/>
-        <v>251.45840000000001</v>
+        <v>115.776</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -4713,25 +4073,25 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="3">
-        <v>60.55</v>
-      </c>
-      <c r="C12" s="3">
-        <v>119.15</v>
+        <v>37</v>
+      </c>
+      <c r="B12" s="22">
+        <v>115.776</v>
+      </c>
+      <c r="C12" s="22">
+        <v>143.5</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
         <v>1</v>
       </c>
       <c r="F12" s="8">
+        <f t="shared" si="1"/>
+        <v>143.5</v>
+      </c>
+      <c r="G12" s="8">
         <f t="shared" si="0"/>
-        <v>119.15</v>
-      </c>
-      <c r="G12" s="8">
-        <f t="shared" si="1"/>
-        <v>253.34119999999999</v>
+        <v>115.776</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -4744,25 +4104,25 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="3">
-        <v>63.88</v>
-      </c>
-      <c r="C13" s="3">
-        <v>121.48</v>
+        <v>37</v>
+      </c>
+      <c r="B13" s="22">
+        <v>115.776</v>
+      </c>
+      <c r="C13" s="22">
+        <v>150.5</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3">
         <v>1</v>
       </c>
       <c r="F13" s="8">
+        <f t="shared" si="1"/>
+        <v>150.5</v>
+      </c>
+      <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>121.48</v>
-      </c>
-      <c r="G13" s="8">
-        <f t="shared" si="1"/>
-        <v>267.27392000000003</v>
+        <v>115.776</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -4775,25 +4135,25 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="3">
-        <v>145.80000000000001</v>
-      </c>
-      <c r="C14" s="3">
-        <v>120.93</v>
+        <v>38</v>
+      </c>
+      <c r="B14" s="22">
+        <v>231.637</v>
+      </c>
+      <c r="C14" s="22">
+        <v>135.80000000000001</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
         <v>1</v>
       </c>
       <c r="F14" s="8">
+        <f t="shared" si="1"/>
+        <v>135.80000000000001</v>
+      </c>
+      <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>120.93</v>
-      </c>
-      <c r="G14" s="8">
-        <f t="shared" si="1"/>
-        <v>610.02720000000011</v>
+        <v>231.637</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -4806,25 +4166,25 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="3">
-        <v>18.2</v>
-      </c>
-      <c r="C15" s="3">
-        <v>109.42</v>
+        <v>39</v>
+      </c>
+      <c r="B15" s="22">
+        <v>1213.3599999999999</v>
+      </c>
+      <c r="C15" s="22">
+        <v>125</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
         <v>1</v>
       </c>
       <c r="F15" s="8">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>109.42</v>
-      </c>
-      <c r="G15" s="8">
-        <f t="shared" si="1"/>
-        <v>76.148799999999994</v>
+        <v>1213.3599999999999</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -4837,25 +4197,25 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="3">
-        <v>18.28</v>
-      </c>
-      <c r="C16" s="3">
-        <v>126.76</v>
+        <v>40</v>
+      </c>
+      <c r="B16" s="22">
+        <v>456.01299999999998</v>
+      </c>
+      <c r="C16" s="22">
+        <v>117.3</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3">
         <v>1</v>
       </c>
       <c r="F16" s="8">
+        <f t="shared" si="1"/>
+        <v>117.3</v>
+      </c>
+      <c r="G16" s="8">
         <f t="shared" si="0"/>
-        <v>126.76</v>
-      </c>
-      <c r="G16" s="8">
-        <f t="shared" si="1"/>
-        <v>76.483520000000013</v>
+        <v>456.01299999999998</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -4868,25 +4228,25 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="3">
-        <v>18.84</v>
-      </c>
-      <c r="C17" s="3">
-        <v>127.94</v>
+        <v>41</v>
+      </c>
+      <c r="B17" s="22">
+        <v>290.20100000000002</v>
+      </c>
+      <c r="C17" s="22">
+        <v>120</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3">
         <v>1</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="0"/>
-        <v>127.94</v>
+        <f t="shared" si="1"/>
+        <v>120</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="1"/>
-        <v>78.826560000000001</v>
+        <f>B17</f>
+        <v>290.20100000000002</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -4898,12 +4258,27 @@
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="22">
+        <v>753.12</v>
+      </c>
+      <c r="C18" s="22">
+        <v>120</v>
+      </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G21" si="2">B18</f>
+        <v>753.12</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -4913,34 +4288,57 @@
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
+      <c r="A19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="22">
+        <v>753.12</v>
+      </c>
+      <c r="C19" s="22">
+        <v>120</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="20">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="2"/>
+        <v>753.12</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="E20" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="3"/>
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="23">
+        <v>309.61599999999999</v>
+      </c>
+      <c r="C20" s="23">
+        <v>120</v>
+      </c>
+      <c r="E20" s="21">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" si="2"/>
+        <v>309.61599999999999</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -4950,22 +4348,26 @@
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>39</v>
+      <c r="A21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="23">
+        <v>309.61599999999999</v>
+      </c>
+      <c r="C21" s="22">
+        <v>120</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>40</v>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8">
+        <f>C21</f>
+        <v>120</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="2"/>
+        <v>309.61599999999999</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -4976,27 +4378,13 @@
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="3">
-        <v>32.04</v>
-      </c>
-      <c r="C22" s="3">
-        <v>109.42</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="8">
-        <f t="shared" ref="F22:F24" si="2">C22</f>
-        <v>109.42</v>
-      </c>
-      <c r="G22" s="8">
-        <f t="shared" ref="G22:G24" si="3">B22*4.184</f>
-        <v>134.05536000000001</v>
-      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -5006,27 +4394,13 @@
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="3">
-        <v>49.24</v>
-      </c>
-      <c r="C23" s="3">
-        <v>126.76</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="8">
-        <f t="shared" si="2"/>
-        <v>126.76</v>
-      </c>
-      <c r="G23" s="8">
-        <f t="shared" si="3"/>
-        <v>206.02016</v>
-      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -5036,27 +4410,13 @@
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="3">
-        <v>51.17</v>
-      </c>
-      <c r="C24" s="3">
-        <v>127.94</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="8">
-        <f t="shared" si="2"/>
-        <v>127.94</v>
-      </c>
-      <c r="G24" s="8">
-        <f t="shared" si="3"/>
-        <v>214.09528</v>
-      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -5067,7 +4427,6 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
-      <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -5113,314 +4472,242 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>151</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5429,10 +4716,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B14522C-7766-40AD-89DD-33BB6363CC46}">
-  <dimension ref="A1:S82"/>
+  <dimension ref="A1:S84"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:F82"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5443,22 +4730,25 @@
     <col min="5" max="5" width="12.21875" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
     <col min="11" max="11" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
-      <c r="B1" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="B1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
@@ -5470,29 +4760,31 @@
       <c r="S1" s="7"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
       <c r="B2" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -5505,32 +4797,32 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="7">
-        <v>0.38</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3">
+        <v>86.837000000000003</v>
+      </c>
+      <c r="C3" s="8">
         <v>180</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="20">
         <v>2</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="7">
+      <c r="G3" s="10">
         <v>9</v>
       </c>
       <c r="H3" s="7">
         <f>C3</f>
         <v>180</v>
       </c>
-      <c r="I3" s="13">
-        <f>B3*4.184</f>
-        <v>1.58992</v>
-      </c>
-      <c r="J3" s="7">
+      <c r="I3" s="11">
+        <f>B3</f>
+        <v>86.837000000000003</v>
+      </c>
+      <c r="J3" s="10">
         <f>D3</f>
         <v>2</v>
       </c>
@@ -5545,33 +4837,33 @@
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="7">
-        <v>2.37</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10.46</v>
+      </c>
+      <c r="C4" s="8">
         <v>180</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="20">
         <v>2</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="7">
+      <c r="G4" s="10">
         <v>9</v>
       </c>
       <c r="H4" s="7">
-        <f t="shared" ref="H4:H18" si="0">C4</f>
+        <f>C4</f>
         <v>180</v>
       </c>
-      <c r="I4" s="13">
-        <f t="shared" ref="I4:I18" si="1">B4*4.184</f>
-        <v>9.9160800000000009</v>
-      </c>
-      <c r="J4" s="7">
-        <f t="shared" ref="J4:J18" si="2">D4</f>
+      <c r="I4" s="11">
+        <f t="shared" ref="I4:I11" si="0">B4</f>
+        <v>10.46</v>
+      </c>
+      <c r="J4" s="10">
+        <f>D4</f>
         <v>2</v>
       </c>
       <c r="K4" s="7"/>
@@ -5585,33 +4877,33 @@
       <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0.69</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="3">
+        <v>12.552</v>
+      </c>
+      <c r="C5" s="8">
         <v>180</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="20">
         <v>2</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="7">
+      <c r="G5" s="10">
         <v>9</v>
       </c>
       <c r="H5" s="7">
-        <f t="shared" si="0"/>
+        <f>C5</f>
         <v>180</v>
       </c>
-      <c r="I5" s="13">
-        <f t="shared" si="1"/>
-        <v>2.8869599999999997</v>
-      </c>
-      <c r="J5" s="7">
-        <f t="shared" si="2"/>
+      <c r="I5" s="11">
+        <f>B5</f>
+        <v>12.552</v>
+      </c>
+      <c r="J5" s="10">
+        <f>D5</f>
         <v>2</v>
       </c>
       <c r="K5" s="7"/>
@@ -5625,33 +4917,33 @@
       <c r="S5" s="7"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0.22</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="A6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="3">
+        <v>12.552</v>
+      </c>
+      <c r="C6" s="8">
         <v>180</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="20">
         <v>2</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="7">
+      <c r="G6" s="10">
         <v>9</v>
       </c>
       <c r="H6" s="7">
+        <f>C6</f>
+        <v>180</v>
+      </c>
+      <c r="I6" s="11">
         <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="I6" s="13">
-        <f t="shared" si="1"/>
-        <v>0.92048000000000008</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" si="2"/>
+        <v>12.552</v>
+      </c>
+      <c r="J6" s="10">
+        <f>D6</f>
         <v>2</v>
       </c>
       <c r="K6" s="7"/>
@@ -5665,33 +4957,33 @@
       <c r="S6" s="7"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="A7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="3">
+        <v>12.552</v>
+      </c>
+      <c r="C7" s="8">
         <v>180</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="20">
         <v>2</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="7">
+      <c r="G7" s="10">
         <v>9</v>
       </c>
       <c r="H7" s="7">
+        <f>C7</f>
+        <v>180</v>
+      </c>
+      <c r="I7" s="11">
         <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="I7" s="13">
-        <f t="shared" si="1"/>
-        <v>1.0878400000000001</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" si="2"/>
+        <v>12.552</v>
+      </c>
+      <c r="J7" s="10">
+        <f>D7</f>
         <v>2</v>
       </c>
       <c r="K7" s="7"/>
@@ -5705,33 +4997,33 @@
       <c r="S7" s="7"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="7">
-        <v>0.62</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="A8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="3">
+        <v>12.552</v>
+      </c>
+      <c r="C8" s="8">
         <v>180</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="20">
         <v>2</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7">
+      <c r="G8" s="10">
         <v>9</v>
       </c>
       <c r="H8" s="7">
+        <f>C8</f>
+        <v>180</v>
+      </c>
+      <c r="I8" s="11">
         <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="I8" s="13">
-        <f t="shared" si="1"/>
-        <v>2.5940799999999999</v>
-      </c>
-      <c r="J8" s="7">
-        <f t="shared" si="2"/>
+        <v>12.552</v>
+      </c>
+      <c r="J8" s="10">
+        <f>D8</f>
         <v>2</v>
       </c>
       <c r="K8" s="7"/>
@@ -5745,33 +5037,33 @@
       <c r="S8" s="7"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="7">
-        <v>0.22</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="A9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="3">
+        <v>12.552</v>
+      </c>
+      <c r="C9" s="8">
         <v>180</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="20">
         <v>2</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="7">
+      <c r="G9" s="10">
         <v>9</v>
       </c>
       <c r="H9" s="7">
+        <f>C9</f>
+        <v>180</v>
+      </c>
+      <c r="I9" s="11">
         <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="I9" s="13">
-        <f t="shared" si="1"/>
-        <v>0.92048000000000008</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" si="2"/>
+        <v>12.552</v>
+      </c>
+      <c r="J9" s="10">
+        <f>D9</f>
         <v>2</v>
       </c>
       <c r="K9" s="7"/>
@@ -5785,33 +5077,33 @@
       <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="A10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="3">
+        <v>12.552</v>
+      </c>
+      <c r="C10" s="8">
         <v>180</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="20">
         <v>2</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7">
+      <c r="G10" s="10">
         <v>9</v>
       </c>
       <c r="H10" s="7">
+        <f>C10</f>
+        <v>180</v>
+      </c>
+      <c r="I10" s="11">
         <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="I10" s="13">
-        <f t="shared" si="1"/>
-        <v>2.3430400000000002</v>
-      </c>
-      <c r="J10" s="7">
-        <f t="shared" si="2"/>
+        <v>12.552</v>
+      </c>
+      <c r="J10" s="10">
+        <f>D10</f>
         <v>2</v>
       </c>
       <c r="K10" s="7"/>
@@ -5825,33 +5117,33 @@
       <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="7">
-        <v>1.06</v>
-      </c>
-      <c r="C11" s="7">
+      <c r="A11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="3">
+        <v>12.552</v>
+      </c>
+      <c r="C11" s="8">
         <v>180</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="20">
         <v>2</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="7">
+      <c r="G11" s="10">
         <v>9</v>
       </c>
       <c r="H11" s="7">
+        <f>C11</f>
+        <v>180</v>
+      </c>
+      <c r="I11" s="11">
         <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="I11" s="13">
-        <f t="shared" si="1"/>
-        <v>4.4350400000000008</v>
-      </c>
-      <c r="J11" s="7">
-        <f t="shared" si="2"/>
+        <v>12.552</v>
+      </c>
+      <c r="J11" s="10">
+        <f>D11</f>
         <v>2</v>
       </c>
       <c r="K11" s="7"/>
@@ -5865,35 +5157,20 @@
       <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C12" s="7">
-        <v>180</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7">
-        <v>9</v>
-      </c>
-      <c r="H12" s="7">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="I12" s="13">
-        <f t="shared" si="1"/>
-        <v>4.6024000000000003</v>
-      </c>
-      <c r="J12" s="7">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
+      <c r="A12" s="8"/>
+      <c r="B12" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -5905,34 +5182,31 @@
       <c r="S12" s="7"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="C13" s="7">
-        <v>180</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2</v>
+      <c r="A13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="7">
-        <v>9</v>
-      </c>
-      <c r="H13" s="7">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="I13" s="13">
-        <f t="shared" si="1"/>
-        <v>2.05016</v>
-      </c>
-      <c r="J13" s="7">
-        <f t="shared" si="2"/>
-        <v>2</v>
+      <c r="G13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -5945,33 +5219,33 @@
       <c r="S13" s="7"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="7">
-        <v>0.59</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="A14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="3">
+        <v>41.84</v>
+      </c>
+      <c r="C14" s="8">
         <v>180</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="20">
         <v>2</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="7">
+      <c r="G14" s="10">
         <v>9</v>
       </c>
       <c r="H14" s="7">
-        <f t="shared" si="0"/>
+        <f>C14</f>
         <v>180</v>
       </c>
-      <c r="I14" s="13">
-        <f t="shared" si="1"/>
-        <v>2.4685600000000001</v>
-      </c>
-      <c r="J14" s="7">
-        <f t="shared" si="2"/>
+      <c r="I14" s="11">
+        <f t="shared" ref="I14:I16" si="1">B14</f>
+        <v>41.84</v>
+      </c>
+      <c r="J14" s="10">
+        <f>D14</f>
         <v>2</v>
       </c>
       <c r="K14" s="7"/>
@@ -5985,33 +5259,33 @@
       <c r="S14" s="7"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="7">
-        <v>1.24</v>
-      </c>
-      <c r="C15" s="7">
+      <c r="A15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="3">
+        <v>41.84</v>
+      </c>
+      <c r="C15" s="8">
         <v>180</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="20">
         <v>2</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="7">
+      <c r="G15" s="10">
         <v>9</v>
       </c>
       <c r="H15" s="7">
-        <f t="shared" si="0"/>
+        <f>C15</f>
         <v>180</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="11">
         <f t="shared" si="1"/>
-        <v>5.1881599999999999</v>
-      </c>
-      <c r="J15" s="7">
-        <f t="shared" si="2"/>
+        <v>41.84</v>
+      </c>
+      <c r="J15" s="10">
+        <f>D15</f>
         <v>2</v>
       </c>
       <c r="K15" s="7"/>
@@ -6025,33 +5299,33 @@
       <c r="S15" s="7"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0.22</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="A16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.548</v>
+      </c>
+      <c r="C16" s="8">
         <v>180</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="20">
         <v>2</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="7">
+      <c r="G16" s="10">
         <v>9</v>
       </c>
       <c r="H16" s="7">
-        <f t="shared" si="0"/>
+        <f>C16</f>
         <v>180</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="11">
         <f t="shared" si="1"/>
-        <v>0.92048000000000008</v>
-      </c>
-      <c r="J16" s="7">
-        <f t="shared" si="2"/>
+        <v>1.548</v>
+      </c>
+      <c r="J16" s="10">
+        <f>D16</f>
         <v>2</v>
       </c>
       <c r="K16" s="7"/>
@@ -6065,35 +5339,16 @@
       <c r="S16" s="7"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="7">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C17" s="7">
-        <v>180</v>
-      </c>
-      <c r="D17" s="7">
-        <v>2</v>
-      </c>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="7">
-        <v>9</v>
-      </c>
-      <c r="H17" s="7">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="I17" s="13">
-        <f t="shared" si="1"/>
-        <v>2.42672</v>
-      </c>
-      <c r="J17" s="7">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
@@ -6105,35 +5360,16 @@
       <c r="S17" s="7"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C18" s="7">
-        <v>180</v>
-      </c>
-      <c r="D18" s="7">
-        <v>2</v>
-      </c>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="7">
-        <v>9</v>
-      </c>
-      <c r="H18" s="7">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="I18" s="13">
-        <f t="shared" si="1"/>
-        <v>9.6231999999999989</v>
-      </c>
-      <c r="J18" s="7">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -6145,15 +5381,17 @@
       <c r="S18" s="7"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -6166,15 +5404,15 @@
       <c r="S19" s="7"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="I20" s="11"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -6187,11 +5425,9 @@
       <c r="S20" s="7"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -6199,11 +5435,11 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
@@ -6213,18 +5449,18 @@
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
@@ -6237,15 +5473,15 @@
       <c r="D23" s="3"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
@@ -6253,144 +5489,62 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
-      <c r="B24" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="O24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="8">
-        <v>3.02</v>
-      </c>
-      <c r="C25">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="D25">
-        <v>0.08</v>
-      </c>
-      <c r="E25" s="8">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8">
-        <v>180</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J25" s="11">
-        <v>5</v>
-      </c>
-      <c r="K25" s="13">
-        <f>B25*4.184</f>
-        <v>12.635680000000001</v>
-      </c>
-      <c r="L25" s="13">
-        <f t="shared" ref="L25:N26" si="3">C25*4.184</f>
-        <v>9.4558400000000002</v>
-      </c>
-      <c r="M25" s="13">
-        <f t="shared" si="3"/>
-        <v>0.33472000000000002</v>
-      </c>
-      <c r="N25" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="7"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="8"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="8">
-        <v>3.39</v>
-      </c>
-      <c r="C26">
-        <v>1.92</v>
-      </c>
-      <c r="D26">
-        <v>0.02</v>
-      </c>
-      <c r="E26" s="8">
-        <v>0</v>
-      </c>
-      <c r="F26" s="8">
-        <v>0</v>
-      </c>
-      <c r="G26" s="7">
-        <v>0</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J26" s="11">
-        <v>5</v>
-      </c>
-      <c r="K26" s="13">
-        <f>B26*4.184</f>
-        <v>14.183760000000001</v>
-      </c>
-      <c r="L26" s="13">
-        <f>-C26*4.184</f>
-        <v>-8.0332799999999995</v>
-      </c>
-      <c r="M26" s="13">
-        <f t="shared" si="3"/>
-        <v>8.3680000000000004E-2</v>
-      </c>
-      <c r="N26" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="7"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="8"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
@@ -6405,22 +5559,20 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -6428,13 +5580,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
@@ -6449,20 +5601,22 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
+      <c r="A30" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -6470,13 +5624,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
@@ -6491,22 +5645,20 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -6514,13 +5666,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
@@ -6535,13 +5687,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
@@ -6556,120 +5708,118 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="8"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="8"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="7"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
@@ -6677,708 +5827,417 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
-      <c r="B40" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="7">
-        <v>0.74</v>
-      </c>
-      <c r="C41" s="7">
-        <v>180</v>
-      </c>
-      <c r="D41" s="7">
-        <v>2</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7">
-        <v>9</v>
-      </c>
-      <c r="H41" s="7">
-        <f>C41</f>
-        <v>180</v>
-      </c>
-      <c r="I41" s="13">
-        <f>B41*4.184</f>
-        <v>3.0961600000000002</v>
-      </c>
-      <c r="J41" s="7">
-        <f>D41</f>
-        <v>2</v>
-      </c>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="7">
-        <v>3.66</v>
-      </c>
-      <c r="C42" s="7">
-        <v>180</v>
-      </c>
-      <c r="D42" s="7">
-        <v>2</v>
-      </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7">
-        <v>9</v>
-      </c>
-      <c r="H42" s="7">
-        <f t="shared" ref="H42:H56" si="4">C42</f>
-        <v>180</v>
-      </c>
-      <c r="I42" s="13">
-        <f t="shared" ref="I42:I56" si="5">B42*4.184</f>
-        <v>15.313440000000002</v>
-      </c>
-      <c r="J42" s="7">
-        <f t="shared" ref="J42:J56" si="6">D42</f>
-        <v>2</v>
-      </c>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="7">
-        <v>1.26</v>
-      </c>
-      <c r="C43" s="7">
-        <v>180</v>
-      </c>
-      <c r="D43" s="7">
-        <v>2</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7">
-        <v>9</v>
-      </c>
-      <c r="H43" s="7">
-        <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="I43" s="13">
-        <f t="shared" si="5"/>
-        <v>5.2718400000000001</v>
-      </c>
-      <c r="J43" s="7">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="C44" s="7">
-        <v>180</v>
-      </c>
-      <c r="D44" s="7">
-        <v>2</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7">
-        <v>9</v>
-      </c>
-      <c r="H44" s="7">
-        <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="I44" s="13">
-        <f t="shared" si="5"/>
-        <v>1.3807200000000002</v>
-      </c>
-      <c r="J44" s="7">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="C45" s="7">
-        <v>180</v>
-      </c>
-      <c r="D45" s="7">
-        <v>2</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7">
-        <v>9</v>
-      </c>
-      <c r="H45" s="7">
-        <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="I45" s="13">
-        <f t="shared" si="5"/>
-        <v>1.8828</v>
-      </c>
-      <c r="J45" s="7">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="7">
-        <v>0.94</v>
-      </c>
-      <c r="C46" s="7">
-        <v>180</v>
-      </c>
-      <c r="D46" s="7">
-        <v>2</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7">
-        <v>9</v>
-      </c>
-      <c r="H46" s="7">
-        <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="I46" s="13">
-        <f t="shared" si="5"/>
-        <v>3.93296</v>
-      </c>
-      <c r="J46" s="7">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="C47" s="7">
-        <v>180</v>
-      </c>
-      <c r="D47" s="7">
-        <v>2</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7">
-        <v>9</v>
-      </c>
-      <c r="H47" s="7">
-        <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="I47" s="13">
-        <f t="shared" si="5"/>
-        <v>1.7991200000000001</v>
-      </c>
-      <c r="J47" s="7">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="7">
-        <v>0.86</v>
-      </c>
-      <c r="C48" s="7">
-        <v>180</v>
-      </c>
-      <c r="D48" s="7">
-        <v>2</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7">
-        <v>9</v>
-      </c>
-      <c r="H48" s="7">
-        <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="I48" s="13">
-        <f t="shared" si="5"/>
-        <v>3.5982400000000001</v>
-      </c>
-      <c r="J48" s="7">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="7">
-        <v>2.16</v>
-      </c>
-      <c r="C49" s="7">
-        <v>180</v>
-      </c>
-      <c r="D49" s="7">
-        <v>2</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7">
-        <v>9</v>
-      </c>
-      <c r="H49" s="7">
-        <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="I49" s="13">
-        <f t="shared" si="5"/>
-        <v>9.0374400000000001</v>
-      </c>
-      <c r="J49" s="7">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" s="7">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="C50" s="7">
-        <v>180</v>
-      </c>
-      <c r="D50" s="7">
-        <v>2</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7">
-        <v>9</v>
-      </c>
-      <c r="H50" s="7">
-        <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="I50" s="13">
-        <f t="shared" si="5"/>
-        <v>9.3721600000000009</v>
-      </c>
-      <c r="J50" s="7">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="C51" s="7">
-        <v>180</v>
-      </c>
-      <c r="D51" s="7">
-        <v>2</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7">
-        <v>9</v>
-      </c>
-      <c r="H51" s="7">
-        <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="I51" s="13">
-        <f t="shared" si="5"/>
-        <v>3.7656000000000001</v>
-      </c>
-      <c r="J51" s="7">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" s="7">
-        <v>1.05</v>
-      </c>
-      <c r="C52" s="7">
-        <v>180</v>
-      </c>
-      <c r="D52" s="7">
-        <v>2</v>
-      </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7">
-        <v>9</v>
-      </c>
-      <c r="H52" s="7">
-        <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="I52" s="13">
-        <f t="shared" si="5"/>
-        <v>4.3932000000000002</v>
-      </c>
-      <c r="J52" s="7">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B53" s="7">
-        <v>2.57</v>
-      </c>
-      <c r="C53" s="7">
-        <v>180</v>
-      </c>
-      <c r="D53" s="7">
-        <v>2</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7">
-        <v>9</v>
-      </c>
-      <c r="H53" s="7">
-        <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="I53" s="13">
-        <f t="shared" si="5"/>
-        <v>10.752879999999999</v>
-      </c>
-      <c r="J53" s="7">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="7">
-        <v>0.54</v>
-      </c>
-      <c r="C54" s="7">
-        <v>180</v>
-      </c>
-      <c r="D54" s="7">
-        <v>2</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7">
-        <v>9</v>
-      </c>
-      <c r="H54" s="7">
-        <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="I54" s="13">
-        <f t="shared" si="5"/>
-        <v>2.25936</v>
-      </c>
-      <c r="J54" s="7">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B55" s="7">
-        <v>1.02</v>
-      </c>
-      <c r="C55" s="7">
-        <v>180</v>
-      </c>
-      <c r="D55" s="7">
-        <v>2</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7">
-        <v>9</v>
-      </c>
-      <c r="H55" s="7">
-        <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="I55" s="13">
-        <f t="shared" si="5"/>
-        <v>4.2676800000000004</v>
-      </c>
-      <c r="J55" s="7">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B56" s="7">
-        <v>3.55</v>
-      </c>
-      <c r="C56" s="7">
-        <v>180</v>
-      </c>
-      <c r="D56" s="7">
-        <v>2</v>
-      </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7">
-        <v>9</v>
-      </c>
-      <c r="H56" s="7">
-        <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="I56" s="13">
-        <f t="shared" si="5"/>
-        <v>14.853199999999999</v>
-      </c>
-      <c r="J56" s="7">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="3"/>
       <c r="B57" s="8"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
       <c r="E57" s="9"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="7"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F57" s="12"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
-      <c r="B58" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M58" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="N58" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="C59" s="3">
-        <v>3.68</v>
-      </c>
-      <c r="D59" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="E59" s="8">
-        <v>0</v>
-      </c>
-      <c r="F59" s="8">
-        <v>180</v>
-      </c>
-      <c r="G59" s="7">
-        <v>0</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J59" s="11">
-        <v>5</v>
-      </c>
-      <c r="K59" s="13">
-        <f>B59*4.184</f>
-        <v>18.827999999999999</v>
-      </c>
-      <c r="L59" s="13">
-        <f t="shared" ref="L59:M59" si="7">C59*4.184</f>
-        <v>15.397120000000001</v>
-      </c>
-      <c r="M59" s="13">
-        <f t="shared" si="7"/>
-        <v>0.54392000000000007</v>
-      </c>
-      <c r="N59" s="13">
-        <f t="shared" ref="N59:N60" si="8">E59*4.184</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>4.13</v>
-      </c>
-      <c r="C60" s="3">
-        <v>2.71</v>
-      </c>
-      <c r="D60" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="E60" s="8">
-        <v>0</v>
-      </c>
-      <c r="F60" s="8">
-        <v>0</v>
-      </c>
-      <c r="G60" s="7">
-        <v>0</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J60" s="11">
-        <v>5</v>
-      </c>
-      <c r="K60" s="13">
-        <f>B60*4.184</f>
-        <v>17.279920000000001</v>
-      </c>
-      <c r="L60" s="13">
-        <f t="shared" ref="L60" si="9">C60*4.184</f>
-        <v>11.33864</v>
-      </c>
-      <c r="M60" s="13">
-        <f t="shared" ref="M60" si="10">D60*4.184</f>
-        <v>0.16736000000000001</v>
-      </c>
-      <c r="N60" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="8"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="8"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="8"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -7390,305 +6249,201 @@
       <c r="I64" s="3"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E68" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="F68" s="17" t="s">
-        <v>155</v>
-      </c>
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="C69" s="17">
-        <v>2</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="C70" s="17">
-        <v>2</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C71" s="17">
-        <v>2</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C72" s="17">
-        <v>2</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C73" s="17">
-        <v>2</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C74" s="17">
-        <v>2</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C75" s="17">
-        <v>2</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C76" s="17">
-        <v>2</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C77" s="17">
-        <v>2</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="F78" s="17"/>
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E79" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="F79" s="17" t="s">
-        <v>155</v>
-      </c>
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C80" s="17">
-        <v>2</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C81" s="17">
-        <v>2</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="C82" s="17">
-        <v>2</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
